--- a/test_rules_10.xlsx
+++ b/test_rules_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eze/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D5AAB-D3D1-C049-AC2A-0D3BA6C00FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188D11F-4CB0-7943-83FA-56A8D3568B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="8140" windowWidth="28220" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>Miles</t>
   </si>
   <si>
-    <t>&lt;340</t>
-  </si>
-  <si>
-    <t>&gt;0</t>
+    <t>&lt;340.0</t>
+  </si>
+  <si>
+    <t>&gt;0.0</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
